--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Kremen1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Kremen1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H2">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I2">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J2">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.660783666666667</v>
+        <v>4.085398</v>
       </c>
       <c r="N2">
-        <v>10.982351</v>
+        <v>12.256194</v>
       </c>
       <c r="O2">
-        <v>0.09096082914730459</v>
+        <v>0.1946485023864393</v>
       </c>
       <c r="P2">
-        <v>0.09096082914730458</v>
+        <v>0.1946485023864393</v>
       </c>
       <c r="Q2">
-        <v>0.01095184446944445</v>
+        <v>29.08667059886733</v>
       </c>
       <c r="R2">
-        <v>0.098566600225</v>
+        <v>261.780035389806</v>
       </c>
       <c r="S2">
-        <v>3.778045829672984E-05</v>
+        <v>0.1939218605532933</v>
       </c>
       <c r="T2">
-        <v>3.778045829672984E-05</v>
+        <v>0.1939218605532933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H3">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I3">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J3">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.703068333333334</v>
+        <v>7.703068333333333</v>
       </c>
       <c r="N3">
         <v>23.109205</v>
       </c>
       <c r="O3">
-        <v>0.1914009530140711</v>
+        <v>0.3670121527605727</v>
       </c>
       <c r="P3">
-        <v>0.1914009530140711</v>
+        <v>0.3670121527605727</v>
       </c>
       <c r="Q3">
-        <v>0.02304501276388889</v>
+        <v>54.84327627619945</v>
       </c>
       <c r="R3">
-        <v>0.207405114875</v>
+        <v>493.589486485795</v>
       </c>
       <c r="S3">
-        <v>7.949812893187268E-05</v>
+        <v>0.3656420606191015</v>
       </c>
       <c r="T3">
-        <v>7.949812893187267E-05</v>
+        <v>0.3656420606191015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H4">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I4">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J4">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.335401333333333</v>
+        <v>1.995086333333333</v>
       </c>
       <c r="N4">
-        <v>7.006204</v>
+        <v>5.985258999999999</v>
       </c>
       <c r="O4">
-        <v>0.0580285701135542</v>
+        <v>0.09505574901514753</v>
       </c>
       <c r="P4">
-        <v>0.05802857011355419</v>
+        <v>0.09505574901514753</v>
       </c>
       <c r="Q4">
-        <v>0.006986742322222223</v>
+        <v>14.20434899952678</v>
       </c>
       <c r="R4">
-        <v>0.0628806809</v>
+        <v>127.839140995741</v>
       </c>
       <c r="S4">
-        <v>2.410208870945591E-05</v>
+        <v>0.09470089663833191</v>
       </c>
       <c r="T4">
-        <v>2.410208870945591E-05</v>
+        <v>0.09470089663833191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H5">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I5">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J5">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.50030600000001</v>
+        <v>3.421958666666666</v>
       </c>
       <c r="N5">
-        <v>70.50091800000001</v>
+        <v>10.265876</v>
       </c>
       <c r="O5">
-        <v>0.5839206884688107</v>
+        <v>0.1630389816842724</v>
       </c>
       <c r="P5">
-        <v>0.5839206884688107</v>
+        <v>0.1630389816842724</v>
       </c>
       <c r="Q5">
-        <v>0.07030508211666668</v>
+        <v>24.36320391312489</v>
       </c>
       <c r="R5">
-        <v>0.6327457390500001</v>
+        <v>219.268835218124</v>
       </c>
       <c r="S5">
-        <v>0.0002425306742044732</v>
+        <v>0.1624303412731065</v>
       </c>
       <c r="T5">
-        <v>0.0002425306742044732</v>
+        <v>0.1624303412731065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H6">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I6">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J6">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8516903333333333</v>
+        <v>1.438594666666667</v>
       </c>
       <c r="N6">
-        <v>2.555071</v>
+        <v>4.315784</v>
       </c>
       <c r="O6">
-        <v>0.02116226085746419</v>
+        <v>0.06854174242210563</v>
       </c>
       <c r="P6">
-        <v>0.02116226085746419</v>
+        <v>0.06854174242210563</v>
       </c>
       <c r="Q6">
-        <v>0.002547973580555556</v>
+        <v>10.24231401557956</v>
       </c>
       <c r="R6">
-        <v>0.022931762225</v>
+        <v>92.180826140216</v>
       </c>
       <c r="S6">
-        <v>8.789716642700986E-06</v>
+        <v>0.06828586941640566</v>
       </c>
       <c r="T6">
-        <v>8.789716642700984E-06</v>
+        <v>0.06828586941640566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H7">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I7">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J7">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.194466</v>
+        <v>2.344486</v>
       </c>
       <c r="N7">
-        <v>6.583398</v>
+        <v>7.033458</v>
       </c>
       <c r="O7">
-        <v>0.05452669839879518</v>
+        <v>0.1117028717314625</v>
       </c>
       <c r="P7">
-        <v>0.05452669839879518</v>
+        <v>0.1117028717314625</v>
       </c>
       <c r="Q7">
-        <v>0.006565110783333333</v>
+        <v>16.69195804317133</v>
       </c>
       <c r="R7">
-        <v>0.05908599705</v>
+        <v>150.227622388542</v>
       </c>
       <c r="S7">
-        <v>2.264759099301913E-05</v>
+        <v>0.1112858740228366</v>
       </c>
       <c r="T7">
-        <v>2.264759099301913E-05</v>
+        <v>0.1112858740228366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H8">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I8">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J8">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.660783666666667</v>
+        <v>4.085398</v>
       </c>
       <c r="N8">
-        <v>10.982351</v>
+        <v>12.256194</v>
       </c>
       <c r="O8">
-        <v>0.09096082914730459</v>
+        <v>0.1946485023864393</v>
       </c>
       <c r="P8">
-        <v>0.09096082914730458</v>
+        <v>0.1946485023864393</v>
       </c>
       <c r="Q8">
-        <v>26.06355822518322</v>
+        <v>0.108990247844</v>
       </c>
       <c r="R8">
-        <v>234.572024026649</v>
+        <v>0.9809122305959999</v>
       </c>
       <c r="S8">
-        <v>0.08991117225397151</v>
+        <v>0.0007266418331459388</v>
       </c>
       <c r="T8">
-        <v>0.08991117225397149</v>
+        <v>0.0007266418331459388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H9">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I9">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J9">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.703068333333334</v>
+        <v>7.703068333333333</v>
       </c>
       <c r="N9">
         <v>23.109205</v>
       </c>
       <c r="O9">
-        <v>0.1914009530140711</v>
+        <v>0.3670121527605727</v>
       </c>
       <c r="P9">
-        <v>0.1914009530140711</v>
+        <v>0.3670121527605727</v>
       </c>
       <c r="Q9">
-        <v>54.84327627619944</v>
+        <v>0.2055024569966666</v>
       </c>
       <c r="R9">
-        <v>493.589486485795</v>
+        <v>1.84952211297</v>
       </c>
       <c r="S9">
-        <v>0.189192251404762</v>
+        <v>0.001370092141471104</v>
       </c>
       <c r="T9">
-        <v>0.189192251404762</v>
+        <v>0.001370092141471104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H10">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I10">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J10">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.335401333333333</v>
+        <v>1.995086333333333</v>
       </c>
       <c r="N10">
-        <v>7.006204</v>
+        <v>5.985258999999999</v>
       </c>
       <c r="O10">
-        <v>0.0580285701135542</v>
+        <v>0.09505574901514753</v>
       </c>
       <c r="P10">
-        <v>0.05802857011355419</v>
+        <v>0.09505574901514753</v>
       </c>
       <c r="Q10">
-        <v>16.62727824775511</v>
+        <v>0.05322491320066666</v>
       </c>
       <c r="R10">
-        <v>149.645504229796</v>
+        <v>0.4790242188059999</v>
       </c>
       <c r="S10">
-        <v>0.05735894023879443</v>
+        <v>0.0003548523768156108</v>
       </c>
       <c r="T10">
-        <v>0.05735894023879442</v>
+        <v>0.0003548523768156108</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H11">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I11">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J11">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.50030600000001</v>
+        <v>3.421958666666666</v>
       </c>
       <c r="N11">
-        <v>70.50091800000001</v>
+        <v>10.265876</v>
       </c>
       <c r="O11">
-        <v>0.5839206884688107</v>
+        <v>0.1630389816842724</v>
       </c>
       <c r="P11">
-        <v>0.5839206884688107</v>
+        <v>0.1630389816842724</v>
       </c>
       <c r="Q11">
-        <v>167.3143374512314</v>
+        <v>0.09129101330933331</v>
       </c>
       <c r="R11">
-        <v>1505.829037061082</v>
+        <v>0.8216191197839998</v>
       </c>
       <c r="S11">
-        <v>0.577182443209211</v>
+        <v>0.0006086404111658888</v>
       </c>
       <c r="T11">
-        <v>0.577182443209211</v>
+        <v>0.0006086404111658887</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H12">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I12">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J12">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8516903333333333</v>
+        <v>1.438594666666667</v>
       </c>
       <c r="N12">
-        <v>2.555071</v>
+        <v>4.315784</v>
       </c>
       <c r="O12">
-        <v>0.02116226085746419</v>
+        <v>0.06854174242210563</v>
       </c>
       <c r="P12">
-        <v>0.02116226085746419</v>
+        <v>0.06854174242210563</v>
       </c>
       <c r="Q12">
-        <v>6.063750992658776</v>
+        <v>0.03837882851733333</v>
       </c>
       <c r="R12">
-        <v>54.57375893392899</v>
+        <v>0.345409456656</v>
       </c>
       <c r="S12">
-        <v>0.02091805559685055</v>
+        <v>0.0002558730056999679</v>
       </c>
       <c r="T12">
-        <v>0.02091805559685055</v>
+        <v>0.0002558730056999679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H13">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I13">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J13">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,772 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.194466</v>
+        <v>2.344486</v>
       </c>
       <c r="N13">
-        <v>6.583398</v>
+        <v>7.033458</v>
       </c>
       <c r="O13">
-        <v>0.05452669839879518</v>
+        <v>0.1117028717314625</v>
       </c>
       <c r="P13">
-        <v>0.05452669839879518</v>
+        <v>0.1117028717314625</v>
       </c>
       <c r="Q13">
-        <v>15.62386569984466</v>
+        <v>0.06254619750799999</v>
       </c>
       <c r="R13">
-        <v>140.614791298602</v>
+        <v>0.562915777572</v>
       </c>
       <c r="S13">
-        <v>0.05389747892727627</v>
+        <v>0.000416997708625938</v>
       </c>
       <c r="T13">
-        <v>0.05389747892727627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.157812</v>
-      </c>
-      <c r="I14">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J14">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.660783666666667</v>
-      </c>
-      <c r="N14">
-        <v>10.982351</v>
-      </c>
-      <c r="O14">
-        <v>0.09096082914730459</v>
-      </c>
-      <c r="P14">
-        <v>0.09096082914730458</v>
-      </c>
-      <c r="Q14">
-        <v>0.1925718640013333</v>
-      </c>
-      <c r="R14">
-        <v>1.733146776012</v>
-      </c>
-      <c r="S14">
-        <v>0.0006643130567937079</v>
-      </c>
-      <c r="T14">
-        <v>0.0006643130567937078</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.157812</v>
-      </c>
-      <c r="I15">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J15">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>7.703068333333334</v>
-      </c>
-      <c r="N15">
-        <v>23.109205</v>
-      </c>
-      <c r="O15">
-        <v>0.1914009530140711</v>
-      </c>
-      <c r="P15">
-        <v>0.1914009530140711</v>
-      </c>
-      <c r="Q15">
-        <v>0.4052122066066666</v>
-      </c>
-      <c r="R15">
-        <v>3.64690985946</v>
-      </c>
-      <c r="S15">
-        <v>0.001397856125124979</v>
-      </c>
-      <c r="T15">
-        <v>0.001397856125124979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.157812</v>
-      </c>
-      <c r="I16">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J16">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.335401333333333</v>
-      </c>
-      <c r="N16">
-        <v>7.006204</v>
-      </c>
-      <c r="O16">
-        <v>0.0580285701135542</v>
-      </c>
-      <c r="P16">
-        <v>0.05802857011355419</v>
-      </c>
-      <c r="Q16">
-        <v>0.1228514517386667</v>
-      </c>
-      <c r="R16">
-        <v>1.105663065648</v>
-      </c>
-      <c r="S16">
-        <v>0.0004237993118012986</v>
-      </c>
-      <c r="T16">
-        <v>0.0004237993118012986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H17">
-        <v>0.157812</v>
-      </c>
-      <c r="I17">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J17">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>23.50030600000001</v>
-      </c>
-      <c r="N17">
-        <v>70.50091800000001</v>
-      </c>
-      <c r="O17">
-        <v>0.5839206884688107</v>
-      </c>
-      <c r="P17">
-        <v>0.5839206884688107</v>
-      </c>
-      <c r="Q17">
-        <v>1.236210096824</v>
-      </c>
-      <c r="R17">
-        <v>11.125890871416</v>
-      </c>
-      <c r="S17">
-        <v>0.004264540474379535</v>
-      </c>
-      <c r="T17">
-        <v>0.004264540474379535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.157812</v>
-      </c>
-      <c r="I18">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J18">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.8516903333333333</v>
-      </c>
-      <c r="N18">
-        <v>2.555071</v>
-      </c>
-      <c r="O18">
-        <v>0.02116226085746419</v>
-      </c>
-      <c r="P18">
-        <v>0.02116226085746419</v>
-      </c>
-      <c r="Q18">
-        <v>0.04480231829466666</v>
-      </c>
-      <c r="R18">
-        <v>0.4032208646519999</v>
-      </c>
-      <c r="S18">
-        <v>0.000154554068280549</v>
-      </c>
-      <c r="T18">
-        <v>0.000154554068280549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.157812</v>
-      </c>
-      <c r="I19">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J19">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.194466</v>
-      </c>
-      <c r="N19">
-        <v>6.583398</v>
-      </c>
-      <c r="O19">
-        <v>0.05452669839879518</v>
-      </c>
-      <c r="P19">
-        <v>0.05452669839879518</v>
-      </c>
-      <c r="Q19">
-        <v>0.115437689464</v>
-      </c>
-      <c r="R19">
-        <v>1.038939205176</v>
-      </c>
-      <c r="S19">
-        <v>0.0003982241370239927</v>
-      </c>
-      <c r="T19">
-        <v>0.0003982241370239927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.027522</v>
-      </c>
-      <c r="H20">
-        <v>0.082566</v>
-      </c>
-      <c r="I20">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J20">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.660783666666667</v>
-      </c>
-      <c r="N20">
-        <v>10.982351</v>
-      </c>
-      <c r="O20">
-        <v>0.09096082914730459</v>
-      </c>
-      <c r="P20">
-        <v>0.09096082914730458</v>
-      </c>
-      <c r="Q20">
-        <v>0.100752088074</v>
-      </c>
-      <c r="R20">
-        <v>0.906768792666</v>
-      </c>
-      <c r="S20">
-        <v>0.0003475633782426514</v>
-      </c>
-      <c r="T20">
-        <v>0.0003475633782426513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.027522</v>
-      </c>
-      <c r="H21">
-        <v>0.082566</v>
-      </c>
-      <c r="I21">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J21">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.703068333333334</v>
-      </c>
-      <c r="N21">
-        <v>23.109205</v>
-      </c>
-      <c r="O21">
-        <v>0.1914009530140711</v>
-      </c>
-      <c r="P21">
-        <v>0.1914009530140711</v>
-      </c>
-      <c r="Q21">
-        <v>0.21200384667</v>
-      </c>
-      <c r="R21">
-        <v>1.90803462003</v>
-      </c>
-      <c r="S21">
-        <v>0.0007313473552522562</v>
-      </c>
-      <c r="T21">
-        <v>0.0007313473552522561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.027522</v>
-      </c>
-      <c r="H22">
-        <v>0.082566</v>
-      </c>
-      <c r="I22">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J22">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.335401333333333</v>
-      </c>
-      <c r="N22">
-        <v>7.006204</v>
-      </c>
-      <c r="O22">
-        <v>0.0580285701135542</v>
-      </c>
-      <c r="P22">
-        <v>0.05802857011355419</v>
-      </c>
-      <c r="Q22">
-        <v>0.06427491549600001</v>
-      </c>
-      <c r="R22">
-        <v>0.578474239464</v>
-      </c>
-      <c r="S22">
-        <v>0.000221728474249018</v>
-      </c>
-      <c r="T22">
-        <v>0.000221728474249018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.027522</v>
-      </c>
-      <c r="H23">
-        <v>0.082566</v>
-      </c>
-      <c r="I23">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J23">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>23.50030600000001</v>
-      </c>
-      <c r="N23">
-        <v>70.50091800000001</v>
-      </c>
-      <c r="O23">
-        <v>0.5839206884688107</v>
-      </c>
-      <c r="P23">
-        <v>0.5839206884688107</v>
-      </c>
-      <c r="Q23">
-        <v>0.6467754217320002</v>
-      </c>
-      <c r="R23">
-        <v>5.820978795588001</v>
-      </c>
-      <c r="S23">
-        <v>0.00223117411101577</v>
-      </c>
-      <c r="T23">
-        <v>0.00223117411101577</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.027522</v>
-      </c>
-      <c r="H24">
-        <v>0.082566</v>
-      </c>
-      <c r="I24">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J24">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.8516903333333333</v>
-      </c>
-      <c r="N24">
-        <v>2.555071</v>
-      </c>
-      <c r="O24">
-        <v>0.02116226085746419</v>
-      </c>
-      <c r="P24">
-        <v>0.02116226085746419</v>
-      </c>
-      <c r="Q24">
-        <v>0.023440221354</v>
-      </c>
-      <c r="R24">
-        <v>0.210961992186</v>
-      </c>
-      <c r="S24">
-        <v>8.086147569038992E-05</v>
-      </c>
-      <c r="T24">
-        <v>8.086147569038992E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.027522</v>
-      </c>
-      <c r="H25">
-        <v>0.082566</v>
-      </c>
-      <c r="I25">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J25">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.194466</v>
-      </c>
-      <c r="N25">
-        <v>6.583398</v>
-      </c>
-      <c r="O25">
-        <v>0.05452669839879518</v>
-      </c>
-      <c r="P25">
-        <v>0.05452669839879518</v>
-      </c>
-      <c r="Q25">
-        <v>0.060396093252</v>
-      </c>
-      <c r="R25">
-        <v>0.543564839268</v>
-      </c>
-      <c r="S25">
-        <v>0.0002083477435019072</v>
-      </c>
-      <c r="T25">
-        <v>0.0002083477435019072</v>
+        <v>0.000416997708625938</v>
       </c>
     </row>
   </sheetData>
